--- a/medicine/Psychotrope/Perricone/Perricone.xlsx
+++ b/medicine/Psychotrope/Perricone/Perricone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le perricone est un cépage italien de raisins noir.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient de la Sicile.
 Il est classé cépage d'appoint en DOC Contea di Sclafani et Delia Nivolelli. Il fait également partie de l'encépagement du très rare Marsala rubis.
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau aplati aranéeux.
 Jeunes feuilles brillantes, glabre ou légèrement aranéeux, vertes à plages bronzées.
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35 jours après le chasselas.
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont petites à moyennes et les baies sont de taille moyenne. La grappe est cylindrique ou conique, serrée. Le cépage est de moyenne vigueur et d'une fertilité moyenne.
 Il donne des vins rouges de qualité et assez alcoolique titrant 14 % à 16 % vol. Il constitue un des meilleurs vins rouges de Sicile.
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le catarratto bianco comune est connu sous les noms de cattarato rouge, guarnaccia nera, nieddara, niuru, perricone nera, pirricone nera, pignateddu, pignatelle, pignatello, quarnaccia, tuccarino di catania.
 </t>
